--- a/Test Data/TC_76689_Verify_IOB_FB_Will_Take_One_Slot_Position_Per_Card.xlsx
+++ b/Test Data/TC_76689_Verify_IOB_FB_Will_Take_One_Slot_Position_Per_Card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD10114-9666-4D47-9EE7-A274BF4BE79A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC23B6B9-C6F3-47AF-8795-188B8CDF3D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Color Codes</t>
   </si>
@@ -69,9 +69,6 @@
     <t>POS800-S</t>
   </si>
   <si>
-    <t>IOB800</t>
-  </si>
-  <si>
     <t>Accessories</t>
   </si>
   <si>
@@ -159,10 +156,16 @@
     <t xml:space="preserve">To verify addition of Devices in backplane and verify shopping list </t>
   </si>
   <si>
-    <t>Other Slot Cards  (3 of 18)</t>
-  </si>
-  <si>
     <t>NGC-2299/TC-76689</t>
+  </si>
+  <si>
+    <t>IOB800(x2)</t>
+  </si>
+  <si>
+    <t>AttachedFunctionality</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3 of 1</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,14 +651,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9"/>
       <c r="I2" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
@@ -668,26 +671,26 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -696,32 +699,32 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2"/>
     </row>
@@ -764,107 +767,107 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="M8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="14" t="b">
         <v>0</v>
@@ -894,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
